--- a/biology/Zoologie/Halyzia_sedecimguttata/Halyzia_sedecimguttata.xlsx
+++ b/biology/Zoologie/Halyzia_sedecimguttata/Halyzia_sedecimguttata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Halyzia sedecimguttata, la Grande coccinelle orange[2], est une espèce d'insectes coléoptères mycophage de la famille des Coccinellidae. Son épithète spécifique sedecimguttata est la contraction de « sedecim » (seize) et « guttata » (tachetée, tachée, mouchetée).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Halyzia sedecimguttata, la Grande coccinelle orange, est une espèce d'insectes coléoptères mycophage de la famille des Coccinellidae. Son épithète spécifique sedecimguttata est la contraction de « sedecim » (seize) et « guttata » (tachetée, tachée, mouchetée).
 Ne pas confondre avec une autre espèce de coccinelles à 16 points plus petite : Tytthaspis sedecimpunctata (Linnaeus, 1761).
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Halyzia sedecimguttata mesure de 5 à 6 mm de long et est de forme ovale. Les yeux composés sont noirs. Les élytres brun-orangé clair parsemés de points blancs (seize au total ou parfois moins). Les bordures des élytres et du pronotum sont transparents.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Presque la totalité de la zone paléarctique.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les forêts caducifoliées, plus rarement dans les futaies résineuses.
 </t>
@@ -605,7 +623,9 @@
           <t>Mœurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Visible d'avril à octobre. Elle passe l'hiver sous l'écorce des arbres ou dans la litière forestière. Elle se nourrit des champignons qui infectent les feuilles des plantes.
 </t>
